--- a/va_facility_data_2025-02-20/Atlantic County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Atlantic%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Atlantic County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Atlantic%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Raa03c4144cf24a2595937009fe297a51"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc1d9ca50e5a94c6cbe9c0d96a81495b8"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R82f015ab5037409aad2da1ca2f3b4c4a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ree5f0a0d97c84bdb9d9d5236571f7d07"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf32ab99b31064a9ab276e2b564570795"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8a6db7af56c249ae93c4b391d2c56842"/>
   </x:sheets>
 </x:workbook>
 </file>
